--- a/Multiknapsack/results/fixed_recourse/singlecut/summary_singlecut.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/summary_singlecut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagan024\Desktop\CCG-RODDU\Multiknapsack\results\fixed_recourse\singlecut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DB277C-BC92-4480-B65E-740C60C1CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081A5A0-B15C-4696-94CE-05BBA410172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>M</t>
   </si>
@@ -62,22 +62,28 @@
     <t>T</t>
   </si>
   <si>
+    <t>CCG info</t>
+  </si>
+  <si>
     <t># iters</t>
   </si>
   <si>
     <t># cuts</t>
   </si>
   <si>
-    <t>CCG info</t>
+    <t>2721.0(7)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>- (10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,15 +121,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,57 +423,59 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" dyDescent="0.25" s="1" customFormat="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" t="s" s="4">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" t="s" s="4">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" dyDescent="0.25" s="1" customFormat="1">
-      <c r="E2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -480,28 +489,25 @@
         <v>0.25</v>
       </c>
       <c r="E3">
-        <v>-112.5</v>
+        <v>-70.400000000000006</v>
       </c>
       <c r="F3">
-        <v>-112.5</v>
+        <v>-70.400000000000006</v>
       </c>
       <c r="G3">
-        <v>0.99</v>
+        <v>29.6</v>
       </c>
       <c r="H3">
-        <v>0.83</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
-        <v>2.0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -515,28 +521,25 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <v>-214.5</v>
+        <v>-101.8</v>
       </c>
       <c r="F4">
-        <v>-214.5</v>
+        <v>-101.8</v>
       </c>
       <c r="G4">
-        <v>1.05</v>
+        <v>106.6</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2.0</v>
+        <v>3.8</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -550,28 +553,25 @@
         <v>0.75</v>
       </c>
       <c r="E5">
-        <v>-303.8</v>
+        <v>-119.4</v>
       </c>
       <c r="F5">
-        <v>-303.8</v>
+        <v>-119.4</v>
       </c>
       <c r="G5">
-        <v>1.02</v>
+        <v>78.3</v>
       </c>
       <c r="H5">
-        <v>0.91</v>
+        <v>2.6</v>
       </c>
       <c r="I5">
-        <v>2.0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -585,28 +585,25 @@
         <v>0.25</v>
       </c>
       <c r="E6">
-        <v>-229.3</v>
+        <v>-104.6</v>
       </c>
       <c r="F6">
-        <v>-229.3</v>
+        <v>-104.6</v>
       </c>
       <c r="G6">
-        <v>2.33</v>
+        <v>214.9</v>
       </c>
       <c r="H6">
-        <v>0.96</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2.0</v>
+        <v>4.3</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -620,28 +617,25 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <v>-431.1</v>
+        <v>-135.19999999999999</v>
       </c>
       <c r="F7">
-        <v>-431.1</v>
+        <v>-135.19999999999999</v>
       </c>
       <c r="G7">
-        <v>2.56</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="H7">
-        <v>1.09</v>
+        <v>3.8</v>
       </c>
       <c r="I7">
-        <v>2.0</v>
+        <v>5.3</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -655,341 +649,311 @@
         <v>0.75</v>
       </c>
       <c r="E8">
-        <v>-606.1</v>
+        <v>-150.1</v>
       </c>
       <c r="F8">
-        <v>-606.1</v>
+        <v>-150.1</v>
       </c>
       <c r="G8">
-        <v>2.1</v>
+        <v>477.9</v>
       </c>
       <c r="H8">
-        <v>0.83</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>2.0</v>
+        <v>5.9</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" dyDescent="0.25">
-      <c r="A9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.25</v>
       </c>
-      <c r="E9">
-        <v>-404.8</v>
-      </c>
-      <c r="F9">
-        <v>-404.8</v>
-      </c>
-      <c r="G9">
-        <v>62.45</v>
-      </c>
-      <c r="H9">
-        <v>1.03</v>
-      </c>
-      <c r="I9">
-        <v>2.0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" dyDescent="0.25">
-      <c r="A10">
+      <c r="E9" s="3">
+        <v>-270.89999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-270.89999999999998</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>50</v>
       </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.5</v>
       </c>
-      <c r="E10">
-        <v>-791.5</v>
-      </c>
-      <c r="F10">
-        <v>-791.5</v>
-      </c>
-      <c r="G10">
-        <v>49.33</v>
-      </c>
-      <c r="H10">
-        <v>1.12</v>
-      </c>
-      <c r="I10">
-        <v>2.0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-408.8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>50</v>
       </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.75</v>
       </c>
-      <c r="E11">
-        <v>-1157.0</v>
-      </c>
-      <c r="F11">
-        <v>-1157.0</v>
-      </c>
-      <c r="G11">
-        <v>51.59</v>
-      </c>
-      <c r="H11">
-        <v>0.93</v>
-      </c>
-      <c r="I11">
-        <v>2.0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" dyDescent="0.25">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12">
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-491</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-563.5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-941.8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1210.7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>100</v>
+      </c>
+      <c r="B15" s="3">
         <v>200</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.25</v>
       </c>
-      <c r="E12">
-        <v>-825.0</v>
-      </c>
-      <c r="F12">
-        <v>-825.0</v>
-      </c>
-      <c r="G12">
-        <v>177.74</v>
-      </c>
-      <c r="H12">
-        <v>1.17</v>
-      </c>
-      <c r="I12">
-        <v>2.0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" dyDescent="0.25">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-960.6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3">
         <v>200</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.5</v>
       </c>
-      <c r="E13">
-        <v>-1600.2</v>
-      </c>
-      <c r="F13">
-        <v>-1600.2</v>
-      </c>
-      <c r="G13">
-        <v>174.43</v>
-      </c>
-      <c r="H13">
-        <v>1.0</v>
-      </c>
-      <c r="I13">
-        <v>2.0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="B14">
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-1445.2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3">
         <v>200</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>0.75</v>
       </c>
-      <c r="E14">
-        <v>-2326.1</v>
-      </c>
-      <c r="F14">
-        <v>-2326.1</v>
-      </c>
-      <c r="G14">
-        <v>202.63</v>
-      </c>
-      <c r="H14">
-        <v>1.03</v>
-      </c>
-      <c r="I14">
-        <v>2.0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" dyDescent="0.25">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.25</v>
-      </c>
-      <c r="E15">
-        <v>-1430.6</v>
-      </c>
-      <c r="F15">
-        <v>-1430.6</v>
-      </c>
-      <c r="G15">
-        <v>2599.52</v>
-      </c>
-      <c r="H15">
-        <v>1.07</v>
-      </c>
-      <c r="I15">
-        <v>2.0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" dyDescent="0.25">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16">
-        <v>-2828.0</v>
-      </c>
-      <c r="F16">
-        <v>-2828.0</v>
-      </c>
-      <c r="G16">
-        <v>2624.38</v>
-      </c>
-      <c r="H16">
-        <v>1.19</v>
-      </c>
-      <c r="I16">
-        <v>2.0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" dyDescent="0.25">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0.75</v>
-      </c>
-      <c r="E17">
-        <v>-4182.0</v>
-      </c>
-      <c r="F17">
-        <v>-4182.0</v>
-      </c>
-      <c r="G17">
-        <v>2597.77</v>
-      </c>
-      <c r="H17">
-        <v>1.17</v>
-      </c>
-      <c r="I17">
-        <v>2.0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-1736.8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
